--- a/OnBoard/output/trust/catch/Catch_Trust_26.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_26.xlsx
@@ -2335,7 +2335,7 @@
         <v>0.143</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I48">
         <v>4.554347826086957</v>
@@ -2376,7 +2376,7 @@
         <v>0.01</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>4.554347826086957</v>
@@ -2991,7 +2991,7 @@
         <v>0.645</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I64">
         <v>4.554347826086957</v>
@@ -3155,7 +3155,7 @@
         <v>1.152</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I68">
         <v>4.554347826086957</v>
